--- a/exemples/cryptoTelcoinPolygon.xlsx
+++ b/exemples/cryptoTelcoinPolygon.xlsx
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="18" t="inlineStr">
         <is>
@@ -650,31 +650,79 @@
       <c r="E7" s="25" t="n"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" s="15">
-      <c r="A8" s="26" t="n"/>
-      <c r="B8" s="26" t="n"/>
-      <c r="C8" s="25" t="n"/>
-      <c r="D8" s="25" t="n"/>
+      <c r="A8" s="26" t="n">
+        <v>0.005505</v>
+      </c>
+      <c r="B8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25" t="inlineStr">
+        <is>
+          <t>20/11/2025</t>
+        </is>
+      </c>
+      <c r="D8" s="25" t="inlineStr">
+        <is>
+          <t>19:02:10</t>
+        </is>
+      </c>
       <c r="E8" s="25" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" s="15">
-      <c r="A9" s="26" t="n"/>
-      <c r="B9" s="26" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="25" t="n"/>
+      <c r="A9" s="26" t="n">
+        <v>0.00539</v>
+      </c>
+      <c r="B9" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D9" s="25" t="inlineStr">
+        <is>
+          <t>01:01:07</t>
+        </is>
+      </c>
       <c r="E9" s="25" t="n"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" s="15">
-      <c r="A10" s="25" t="n"/>
-      <c r="B10" s="25" t="n"/>
-      <c r="C10" s="25" t="n"/>
-      <c r="D10" s="25" t="n"/>
+      <c r="A10" s="25" t="n">
+        <v>0.005185</v>
+      </c>
+      <c r="B10" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D10" s="25" t="inlineStr">
+        <is>
+          <t>07:01:30</t>
+        </is>
+      </c>
       <c r="E10" s="25" t="n"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" s="15">
-      <c r="A11" s="25" t="n"/>
-      <c r="B11" s="25" t="n"/>
-      <c r="C11" s="25" t="n"/>
-      <c r="D11" s="25" t="n"/>
+      <c r="A11" s="25" t="n">
+        <v>0.004827</v>
+      </c>
+      <c r="B11" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="D11" s="25" t="inlineStr">
+        <is>
+          <t>14:02:09</t>
+        </is>
+      </c>
       <c r="E11" s="25" t="n"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" s="15">
@@ -10875,6 +10923,7 @@
     <row r="9997"/>
     <row r="9998"/>
     <row r="9999"/>
+    <row r="1048576" ht="12.75" customHeight="1" s="15"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
